--- a/gprs/src/main/webapp/templete/paylog_templete.xlsx
+++ b/gprs/src/main/webapp/templete/paylog_templete.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>代理商</t>
   </si>
@@ -51,15 +51,52 @@
     <t>操作状态</t>
   </si>
   <si>
+    <t>${item.account}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${bean}" var="item" &gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.orderId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.money}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.discount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.memo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${fmt.format(item.optionTime)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.agentOrderId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">${item.balance}
+  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;/jx:forEach&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${item.account}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${bean}" var="item" &gt;</t>
+    <t>${paylogfmt.typefmt(item.type)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${paylogfmt.statusfmt(item.status)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -116,12 +153,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -132,12 +177,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -179,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,15 +471,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="11" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="46.375" customWidth="1"/>
+    <col min="2" max="2" width="33.25" customWidth="1"/>
+    <col min="3" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -470,26 +523,202 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
